--- a/biology/Botanique/Clavulinopsis_laeticolor/Clavulinopsis_laeticolor.xlsx
+++ b/biology/Botanique/Clavulinopsis_laeticolor/Clavulinopsis_laeticolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clavaire jolie, Clavaire joyeuse
-Clavulinopsis laeticolor, la Clavaire jolie[1] ou Clavaire joyeuse, est une espèce de champignons de la famille des Clavariaceae.
+Clavulinopsis laeticolor, la Clavaire jolie ou Clavaire joyeuse, est une espèce de champignons de la famille des Clavariaceae.
 </t>
         </is>
       </c>
@@ -514,17 +526,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Formes
-Selon MycoBank                                            (21 janvier 2023)[2] :
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (21 janvier 2023) :
 Clavulinopsis laeticolor f. bispora K.S.Thind &amp; Sharda, 1986
 Clavulinopsis laeticolor f. bulbispora R.H.Petersen, 1968
 Clavulinopsis laeticolor f. coccineobasalis (Joss.) R.H.Petersen, 1971
-Clavulinopsis laeticolor f. laeticolor
-Variétés
-Selon MycoBank                                            (21 janvier 2023)[2] :
-Clavulinopsis laeticolor var. antillarum (Pat.) R.H. Petersen, 1968
-Clavulinopsis laeticolor var. laeticolor
-Clavulinopsis laeticolor var. microspora J.Aug.Schmitt, 2022</t>
+Clavulinopsis laeticolor f. laeticolor</t>
         </is>
       </c>
     </row>
@@ -549,15 +561,56 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Liste des formes et variétés</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (21 janvier 2023) :
+Clavulinopsis laeticolor var. antillarum (Pat.) R.H. Petersen, 1968
+Clavulinopsis laeticolor var. laeticolor
+Clavulinopsis laeticolor var. microspora J.Aug.Schmitt, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clavulinopsis_laeticolor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clavulinopsis_laeticolor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Clavulinopsis laeticolor (Berk. &amp; M.A. Curtis) R.H. Petersen, 1965[2].
-L'espèce a été initialement classée dans le genre Clavaria sous le basionyme Clavaria laeticolor Berk. &amp; M.A. Curtis, 1869[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Clavaire jolie[1].
-Clavulinopsis laeticolor a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Clavulinopsis laeticolor (Berk. &amp; M.A. Curtis) R.H. Petersen, 1965.
+L'espèce a été initialement classée dans le genre Clavaria sous le basionyme Clavaria laeticolor Berk. &amp; M.A. Curtis, 1869.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Clavaire jolie.
+Clavulinopsis laeticolor a pour synonymes :
 Clavaria laeticola Berk. &amp; M.A.Curtis (1868), 1868
 Clavaria laeticolor Berk. &amp; M.A.Curtis, 1869
 Clavaria pulchra Peck, 1876
@@ -567,31 +620,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Clavulinopsis_laeticolor</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Clavulinopsis_laeticolor</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
